--- a/Proyectos.xlsx
+++ b/Proyectos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebec\Desktop\UNIVERSIDAD\TFG\TFG URJC\TFG---URJC-2020-2021-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69585540-248F-4F63-9AA8-1CE30CD93F93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A830B50-296B-49BA-B35B-892969080C0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B115E6D6-11EE-41E8-95DF-088260717932}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>0.05</t>
   </si>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6D171C-BF99-4910-A7C4-913E6C9AC035}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,7 +466,7 @@
     <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -482,8 +482,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -499,8 +502,12 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="str">
+        <f>CONCATENATE(B2,",",C2,",",D2,",",E2)</f>
+        <v>0.05,3,1000,-1000, 500, 500, 500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -516,8 +523,12 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F13" si="0">CONCATENATE(B3,",",C3,",",D3,",",E3)</f>
+        <v>0.03,4,500,-500, 200, 200, 200, 200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -533,8 +544,12 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.02,2,200,-200, 500, 500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -550,8 +565,12 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>0.08,5,1500,-1500, 400, 400, 400, 400, 400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -567,8 +586,12 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>0.03,3,400,-400, 500, 500, 500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -584,8 +607,12 @@
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.07,2,800,-800, 600, 600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -601,8 +628,12 @@
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>0.05,4,700,-700, 400, 400, 400, 400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -618,8 +649,12 @@
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>0.06,3,900,-900, 800, 800, 800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -635,8 +670,12 @@
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>0.05,5,400,-400, 900, 900, 900, 900, 100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -652,8 +691,12 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.06,4,600,-600, 1000, 1000, 1000, 1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -669,8 +712,12 @@
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.08,4,900,-900, 1100, 1100, 1100, 1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -685,6 +732,10 @@
       </c>
       <c r="E13" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>0.07,3,900,-900, 1200, 1200, 1200</v>
       </c>
     </row>
   </sheetData>
